--- a/parameters/input_file_template.xlsx
+++ b/parameters/input_file_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_README" sheetId="6" r:id="rId1"/>
@@ -89,9 +89,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Purpose</t>
-  </si>
-  <si>
-    <t>For MAS Form 1 Generation</t>
   </si>
   <si>
     <t>FY_END_MONTH</t>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>Luna Allocation Fund</t>
+  </si>
+  <si>
+    <t>For MAS Form</t>
   </si>
 </sst>
 </file>
@@ -783,10 +783,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="19">
         <v>45297</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -887,10 +887,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -909,10 +909,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -931,10 +931,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -953,10 +953,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -993,7 +993,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1051,14 +1051,14 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,12 +1122,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1135,15 +1135,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>44926</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>31</v>
@@ -1191,21 +1191,21 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="5">
         <v>44926</v>
@@ -1225,16 +1225,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4">
         <v>5000</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4">
         <v>423343.38</v>
@@ -2650,59 +2650,59 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>-9405.94</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -21483,12 +21483,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5">
         <v>44926</v>
@@ -21508,33 +21508,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6">
         <v>1.3394999999999999</v>
@@ -21734,7 +21734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -21751,12 +21751,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>44926</v>
@@ -21764,42 +21764,42 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>1.3394999999999999</v>

--- a/parameters/input_file_template.xlsx
+++ b/parameters/input_file_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12160" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="_README" sheetId="6" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -1177,15 +1177,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="2"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
